--- a/data/TestLocation/input_data/renewable_generators.xlsx
+++ b/data/TestLocation/input_data/renewable_generators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B4F07E-57FD-40EF-AF26-475CF3819E4C}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2417D9B-F86A-4BB8-9B2F-5B4E870E0A62}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="720" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7860" yWindow="-15950" windowWidth="20740" windowHeight="10750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -784,11 +784,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data/TestLocation/input_data/renewable_generators.xlsx
+++ b/data/TestLocation/input_data/renewable_generators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2417D9B-F86A-4BB8-9B2F-5B4E870E0A62}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69041E5-AE7A-46E8-B686-D43B285EF265}"/>
   <bookViews>
-    <workbookView xWindow="-7860" yWindow="-15950" windowWidth="20740" windowHeight="10750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3460" yWindow="-9440" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -315,27 +315,6 @@
     <t>CostOperationVarRy2050</t>
   </si>
   <si>
-    <t>Lifetimey2020</t>
-  </si>
-  <si>
-    <t>Lifetimey2025</t>
-  </si>
-  <si>
-    <t>Lifetimey2030</t>
-  </si>
-  <si>
-    <t>Lifetimey2035</t>
-  </si>
-  <si>
-    <t>Lifetimey2040</t>
-  </si>
-  <si>
-    <t>Lifetimey2045</t>
-  </si>
-  <si>
-    <t>Lifetimey2050</t>
-  </si>
-  <si>
     <t>CostCapRy2020</t>
   </si>
   <si>
@@ -364,6 +343,27 @@
   </si>
   <si>
     <t>Capacity factor</t>
+  </si>
+  <si>
+    <t>LifetimeRy2020</t>
+  </si>
+  <si>
+    <t>LifetimeRy2025</t>
+  </si>
+  <si>
+    <t>LifetimeRy2030</t>
+  </si>
+  <si>
+    <t>LifetimeRy2035</t>
+  </si>
+  <si>
+    <t>LifetimeRy2040</t>
+  </si>
+  <si>
+    <t>LifetimeRy2045</t>
+  </si>
+  <si>
+    <t>LifetimeRy2050</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,25 +822,25 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
         <v>34</v>
@@ -885,25 +885,25 @@
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AF1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AG1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AH1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="s">
         <v>26</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" s="13">
         <v>0.8</v>

--- a/data/TestLocation/input_data/renewable_generators.xlsx
+++ b/data/TestLocation/input_data/renewable_generators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69041E5-AE7A-46E8-B686-D43B285EF265}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB4E284-1BAE-48EF-BA22-C6BC7CF82DCA}"/>
   <bookViews>
-    <workbookView xWindow="-3460" yWindow="-9440" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{E97AF599-5359-4BEF-BA84-B755B04F9068}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{E97AF599-5359-4BEF-BA84-B755B04F9068}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E2C96896-F076-433A-AF10-C69FAD67EF89}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{E2C96896-F076-433A-AF10-C69FAD67EF89}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{D3DB9FA2-DE4E-4685-AFD7-359EE8BE4A95}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{D3DB9FA2-DE4E-4685-AFD7-359EE8BE4A95}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{C848DB80-8A60-45CF-989A-F11DBF7AAE64}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{C848DB80-8A60-45CF-989A-F11DBF7AAE64}">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{4DAC6177-2629-4665-9B4D-9F2ACAAEAEC9}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{4DAC6177-2629-4665-9B4D-9F2ACAAEAEC9}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>PMatterR</t>
   </si>
@@ -204,39 +204,18 @@
     <t>generator_name</t>
   </si>
   <si>
-    <t>r1_tech</t>
-  </si>
-  <si>
     <t>r2_Wind</t>
   </si>
   <si>
     <t>r3_Wind</t>
   </si>
   <si>
-    <t>r4_Wind</t>
-  </si>
-  <si>
     <t>r5_SolarPV</t>
   </si>
   <si>
     <t>r6_SolarPV</t>
   </si>
   <si>
-    <t>r7_SolarPV</t>
-  </si>
-  <si>
-    <t>r8_RoR</t>
-  </si>
-  <si>
-    <t>r9_RoR</t>
-  </si>
-  <si>
-    <t>r10_Geothermal</t>
-  </si>
-  <si>
-    <t>r11_Biomass</t>
-  </si>
-  <si>
     <t>Tech</t>
   </si>
   <si>
@@ -364,6 +343,48 @@
   </si>
   <si>
     <t>LifetimeRy2050</t>
+  </si>
+  <si>
+    <t>minCapacityPotRb1</t>
+  </si>
+  <si>
+    <t>minCapacityPotRb2</t>
+  </si>
+  <si>
+    <t>minCapacityPotRb3</t>
+  </si>
+  <si>
+    <t>minCapacityPotRb4</t>
+  </si>
+  <si>
+    <t>maxCapacityPotRb2</t>
+  </si>
+  <si>
+    <t>maxCapacityPotRb3</t>
+  </si>
+  <si>
+    <t>maxCapacityPotRb4</t>
+  </si>
+  <si>
+    <t>maxCapacityPotRb1</t>
+  </si>
+  <si>
+    <t>in MW</t>
+  </si>
+  <si>
+    <t>r1_Wind</t>
+  </si>
+  <si>
+    <t>r4_SolarPV</t>
+  </si>
+  <si>
+    <t>r7_Geothermal</t>
+  </si>
+  <si>
+    <t>r8_Biomass</t>
+  </si>
+  <si>
+    <t>r9_Biogas</t>
   </si>
 </sst>
 </file>
@@ -782,32 +803,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -822,93 +844,117 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AN1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1009,10 +1055,37 @@
       <c r="AH2" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1113,10 +1186,37 @@
       <c r="AH3" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1217,10 +1317,37 @@
       <c r="AH4" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1321,10 +1448,37 @@
       <c r="AH5" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1425,10 +1579,37 @@
       <c r="AH6" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1529,576 +1710,570 @@
       <c r="AH7" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AI7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>25.323</v>
+      </c>
+      <c r="E8">
+        <v>11.377000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4970</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4720</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4470</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4245</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4020</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3815</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3610</v>
+      </c>
+      <c r="N8" s="1">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1">
+        <v>80</v>
+      </c>
+      <c r="P8" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>80</v>
+      </c>
+      <c r="R8" s="1">
+        <v>80</v>
+      </c>
+      <c r="S8" s="1">
+        <v>80</v>
+      </c>
+      <c r="T8" s="1">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3145</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2990</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2870</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2750</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2645</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2540</v>
+      </c>
+      <c r="N9">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="O9">
+        <v>72.3</v>
+      </c>
+      <c r="P9">
+        <v>68.8</v>
+      </c>
+      <c r="Q9">
+        <v>66</v>
+      </c>
+      <c r="R9">
+        <v>63.3</v>
+      </c>
+      <c r="S9">
+        <v>60.8</v>
+      </c>
+      <c r="T9">
+        <v>58.4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI9">
+        <v>394.52226000000002</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>52</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>429</v>
+      </c>
+      <c r="H10" s="1">
+        <v>400</v>
+      </c>
+      <c r="I10" s="1">
+        <v>370</v>
+      </c>
+      <c r="J10" s="1">
+        <v>340</v>
+      </c>
+      <c r="K10" s="1">
+        <v>326</v>
+      </c>
+      <c r="L10" s="1">
+        <v>311</v>
+      </c>
+      <c r="M10" s="1">
+        <v>296</v>
+      </c>
+      <c r="N10">
+        <v>17.2</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>14.8</v>
+      </c>
+      <c r="Q10">
+        <v>13.6</v>
+      </c>
+      <c r="R10">
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <v>12.4</v>
+      </c>
+      <c r="T10">
+        <v>11.8</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AI10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>55</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>6.6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2560</v>
-      </c>
-      <c r="N8">
-        <v>76.8</v>
-      </c>
-      <c r="O8">
-        <v>76.8</v>
-      </c>
-      <c r="P8">
-        <v>76.8</v>
-      </c>
-      <c r="Q8">
-        <v>76.8</v>
-      </c>
-      <c r="R8">
-        <v>76.8</v>
-      </c>
-      <c r="S8">
-        <v>76.8</v>
-      </c>
-      <c r="T8">
-        <v>76.8</v>
-      </c>
-      <c r="U8" s="1">
-        <v>5</v>
-      </c>
-      <c r="V8" s="1">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1">
-        <v>5</v>
-      </c>
-      <c r="X8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>50</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>6.6</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2560</v>
-      </c>
-      <c r="N9">
-        <v>76.8</v>
-      </c>
-      <c r="O9">
-        <v>76.8</v>
-      </c>
-      <c r="P9">
-        <v>76.8</v>
-      </c>
-      <c r="Q9">
-        <v>76.8</v>
-      </c>
-      <c r="R9">
-        <v>76.8</v>
-      </c>
-      <c r="S9">
-        <v>76.8</v>
-      </c>
-      <c r="T9">
-        <v>76.8</v>
-      </c>
-      <c r="U9" s="1">
-        <v>5</v>
-      </c>
-      <c r="V9" s="1">
-        <v>5</v>
-      </c>
-      <c r="W9" s="1">
-        <v>5</v>
-      </c>
-      <c r="X9" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>50</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>25.323</v>
-      </c>
-      <c r="E10">
-        <v>11.377000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4970</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4720</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4470</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4245</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4020</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3815</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3610</v>
-      </c>
-      <c r="N10" s="1">
-        <v>80</v>
-      </c>
-      <c r="O10" s="1">
-        <v>80</v>
-      </c>
-      <c r="P10" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>80</v>
-      </c>
-      <c r="R10" s="1">
-        <v>80</v>
-      </c>
-      <c r="S10" s="1">
-        <v>80</v>
-      </c>
-      <c r="T10" s="1">
-        <v>80</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3300</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3145</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2990</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2870</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2750</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2645</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2540</v>
-      </c>
-      <c r="N11">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="O11">
-        <v>72.3</v>
-      </c>
-      <c r="P11">
-        <v>68.8</v>
-      </c>
-      <c r="Q11">
-        <v>66</v>
-      </c>
-      <c r="R11">
-        <v>63.3</v>
-      </c>
-      <c r="S11">
-        <v>60.8</v>
-      </c>
-      <c r="T11">
-        <v>58.4</v>
-      </c>
-      <c r="U11" s="1">
-        <v>3</v>
-      </c>
-      <c r="V11" s="1">
-        <v>3</v>
-      </c>
-      <c r="W11" s="1">
-        <v>3</v>
-      </c>
-      <c r="X11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>25</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>429</v>
-      </c>
-      <c r="H12" s="1">
-        <v>400</v>
-      </c>
-      <c r="I12" s="1">
-        <v>370</v>
-      </c>
-      <c r="J12" s="1">
-        <v>340</v>
-      </c>
-      <c r="K12" s="1">
-        <v>326</v>
-      </c>
-      <c r="L12" s="1">
-        <v>311</v>
-      </c>
-      <c r="M12" s="1">
-        <v>296</v>
-      </c>
-      <c r="N12">
-        <v>17.2</v>
-      </c>
-      <c r="O12">
-        <v>16</v>
-      </c>
-      <c r="P12">
-        <v>14.8</v>
-      </c>
-      <c r="Q12">
-        <v>13.6</v>
-      </c>
-      <c r="R12">
-        <v>13</v>
-      </c>
-      <c r="S12">
-        <v>12.4</v>
-      </c>
-      <c r="T12">
-        <v>11.8</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>30</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2114,26 +2289,21 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2158,25 +2328,34 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.82600000000000007</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.85200000000000009</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.90400000000000014</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.93</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="5"/>
       <c r="L17" s="5"/>
@@ -2202,26 +2381,21 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2246,40 +2420,21 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.82600000000000007</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.85200000000000009</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.87800000000000011</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.90400000000000014</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="I19" s="7"/>
+      <c r="A19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2304,25 +2459,17 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="L20" s="5"/>
@@ -2348,35 +2495,21 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -2392,32 +2525,21 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -2433,26 +2555,21 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L23" s="5"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -2468,26 +2585,21 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
@@ -2503,17 +2615,12 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2538,17 +2645,12 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2573,26 +2675,21 @@
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -2617,9 +2714,6 @@
       <c r="AO27" s="5"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -2652,17 +2746,14 @@
       <c r="AO28" s="5"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
@@ -2783,14 +2874,14 @@
       <c r="AO32" s="5"/>
     </row>
     <row r="33" spans="12:41" x14ac:dyDescent="0.3">
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -2847,14 +2938,14 @@
       <c r="AO34" s="5"/>
     </row>
     <row r="35" spans="12:41" x14ac:dyDescent="0.3">
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -2880,13 +2971,13 @@
     </row>
     <row r="36" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -3008,13 +3099,13 @@
     </row>
     <row r="40" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L40" s="5"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -3072,13 +3163,13 @@
     </row>
     <row r="42" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L42" s="5"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
@@ -3200,13 +3291,13 @@
     </row>
     <row r="46" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -3232,13 +3323,13 @@
     </row>
     <row r="47" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -3264,13 +3355,13 @@
     </row>
     <row r="48" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L48" s="5"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -3296,13 +3387,13 @@
     </row>
     <row r="49" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L49" s="5"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -3335,28 +3426,6 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
     </row>
     <row r="51" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L51" s="5"/>
@@ -3367,28 +3436,6 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
     </row>
     <row r="52" spans="12:41" x14ac:dyDescent="0.3">
       <c r="L52" s="5"/>
@@ -3400,26 +3447,6 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
     </row>
-    <row r="53" spans="12:41" x14ac:dyDescent="0.3">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="12:41" x14ac:dyDescent="0.3">
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
